--- a/INTU.xlsx
+++ b/INTU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\ModelsResearchMetrics\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF1A739-6BBE-4F4B-88C6-AC7B432E450A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338E34D5-9505-4AF3-8406-FBC644E442B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{0690E676-64F4-43EE-9DA2-E70D239E7FE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0690E676-64F4-43EE-9DA2-E70D239E7FE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="113">
   <si>
     <t>Revenue</t>
   </si>
@@ -90,42 +90,6 @@
     <t>Revenue y/y</t>
   </si>
   <si>
-    <t>Q222</t>
-  </si>
-  <si>
-    <t>Q322</t>
-  </si>
-  <si>
-    <t>Q122</t>
-  </si>
-  <si>
-    <t>Q422</t>
-  </si>
-  <si>
-    <t>Q123</t>
-  </si>
-  <si>
-    <t>Q223</t>
-  </si>
-  <si>
-    <t>Q323</t>
-  </si>
-  <si>
-    <t>Q423</t>
-  </si>
-  <si>
-    <t>Q124</t>
-  </si>
-  <si>
-    <t>Q224</t>
-  </si>
-  <si>
-    <t>Q324</t>
-  </si>
-  <si>
-    <t>Q424</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -159,18 +123,12 @@
     <t>Product and other</t>
   </si>
   <si>
-    <t>Q125</t>
-  </si>
-  <si>
     <t>S&amp;M</t>
   </si>
   <si>
     <t>G&amp;A</t>
   </si>
   <si>
-    <t>Q225</t>
-  </si>
-  <si>
     <t>Net cash</t>
   </si>
   <si>
@@ -313,6 +271,111 @@
   </si>
   <si>
     <t>TTM</t>
+  </si>
+  <si>
+    <t>FQ225</t>
+  </si>
+  <si>
+    <t>FQ125</t>
+  </si>
+  <si>
+    <t>FQ424</t>
+  </si>
+  <si>
+    <t>FQ324</t>
+  </si>
+  <si>
+    <t>FQ224</t>
+  </si>
+  <si>
+    <t>FQ124</t>
+  </si>
+  <si>
+    <t>FQ422</t>
+  </si>
+  <si>
+    <t>FQ423</t>
+  </si>
+  <si>
+    <t>FQ323</t>
+  </si>
+  <si>
+    <t>FQ223</t>
+  </si>
+  <si>
+    <t>FQ123</t>
+  </si>
+  <si>
+    <t>FQ322</t>
+  </si>
+  <si>
+    <t>FQ222</t>
+  </si>
+  <si>
+    <t>FQ122</t>
+  </si>
+  <si>
+    <t>FY14</t>
+  </si>
+  <si>
+    <t>FY15</t>
+  </si>
+  <si>
+    <t>FY16</t>
+  </si>
+  <si>
+    <t>FY17</t>
+  </si>
+  <si>
+    <t>FY18</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>FY30</t>
+  </si>
+  <si>
+    <t>FY31</t>
+  </si>
+  <si>
+    <t>FY32</t>
+  </si>
+  <si>
+    <t>FY33</t>
+  </si>
+  <si>
+    <t>FY34</t>
   </si>
 </sst>
 </file>
@@ -320,10 +383,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="d/mm/yy;@"/>
-    <numFmt numFmtId="168" formatCode="0\x"/>
+    <numFmt numFmtId="164" formatCode="d/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="0\x"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -334,6 +397,11 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="arial"/>
       <family val="2"/>
     </font>
@@ -358,10 +426,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -372,9 +439,11 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C89E410-32F5-4DDB-BF7B-99DCB63FA1C8}">
   <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -827,15 +896,15 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L3">
         <v>621.21</v>
@@ -843,7 +912,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
@@ -854,10 +923,10 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L5" s="1">
         <f>+L3*L4</f>
@@ -866,7 +935,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="L6" s="1">
         <f>+Model!O28</f>
@@ -875,7 +944,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="L7" s="1">
         <f>+Model!O40</f>
@@ -884,7 +953,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L8" s="1">
         <f>+L5-L6+L7</f>
@@ -897,7 +966,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L10" s="11">
+      <c r="L10" s="9">
         <f>+L8/L9</f>
         <v>31.250658739346594</v>
       </c>
@@ -911,11 +980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA20EF70-2579-4AB4-B768-BC8D847EFC60}">
   <dimension ref="A1:AL96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H56" sqref="H56"/>
+      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -924,192 +993,172 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="9">
+    <row r="1" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="8">
         <v>44500</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="8">
         <v>44592</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="8">
         <v>44681</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>44773</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <v>44865</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>44957</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>45046</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>45138</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="8">
         <v>45230</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="8">
         <v>45322</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="8">
         <v>45412</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="8">
         <v>45504</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="8">
         <v>45596</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="8">
         <v>45688</v>
       </c>
-      <c r="Z1" s="9">
+      <c r="Z1" s="8">
         <v>44773</v>
       </c>
-      <c r="AA1" s="9">
+      <c r="AA1" s="8">
         <v>45138</v>
       </c>
-      <c r="AB1" s="9">
+      <c r="AB1" s="8">
         <v>45504</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="2">
-        <v>2014</v>
-      </c>
-      <c r="S2" s="2">
-        <f>+R2+1</f>
-        <v>2015</v>
-      </c>
-      <c r="T2" s="2">
-        <f t="shared" ref="T2:AM2" si="0">+S2+1</f>
-        <v>2016</v>
-      </c>
-      <c r="U2" s="2">
-        <f t="shared" si="0"/>
-        <v>2017</v>
-      </c>
-      <c r="V2" s="2">
-        <f t="shared" si="0"/>
-        <v>2018</v>
-      </c>
-      <c r="W2" s="2">
-        <f t="shared" si="0"/>
-        <v>2019</v>
-      </c>
-      <c r="X2" s="2">
-        <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="Y2" s="2">
-        <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="Z2" s="2">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="AA2" s="2">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="AB2" s="2">
-        <f t="shared" si="0"/>
-        <v>2024</v>
-      </c>
-      <c r="AC2" s="2">
-        <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="AD2" s="2">
-        <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-      <c r="AE2" s="2">
-        <f t="shared" si="0"/>
-        <v>2027</v>
-      </c>
-      <c r="AF2" s="2">
-        <f t="shared" si="0"/>
-        <v>2028</v>
-      </c>
-      <c r="AG2" s="2">
-        <f t="shared" si="0"/>
-        <v>2029</v>
-      </c>
-      <c r="AH2" s="2">
-        <f t="shared" si="0"/>
-        <v>2030</v>
-      </c>
-      <c r="AI2" s="2">
-        <f t="shared" si="0"/>
-        <v>2031</v>
-      </c>
-      <c r="AJ2" s="2">
-        <f t="shared" si="0"/>
-        <v>2032</v>
-      </c>
-      <c r="AK2" s="2">
-        <f t="shared" si="0"/>
-        <v>2033</v>
-      </c>
-      <c r="AL2" s="2">
-        <f t="shared" si="0"/>
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="B3" s="1">
         <v>1610</v>
@@ -1120,7 +1169,7 @@
       <c r="D3" s="1">
         <v>5078</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>+Z3-SUM(B3:D3)</f>
         <v>2078</v>
       </c>
@@ -1133,7 +1182,7 @@
       <c r="H3" s="1">
         <v>5404</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <f>+AA3-SUM(F3:H3)</f>
         <v>2309</v>
       </c>
@@ -1146,7 +1195,7 @@
       <c r="L3" s="1">
         <v>6048</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <f>+AB3-SUM(J3:L3)</f>
         <v>2670</v>
       </c>
@@ -1156,14 +1205,14 @@
       <c r="O3" s="1">
         <v>3249</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
       <c r="Z3" s="1">
         <v>10914</v>
       </c>
@@ -1173,20 +1222,20 @@
       <c r="AB3" s="1">
         <v>13861</v>
       </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>39</v>
+      <c r="A4" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>397</v>
@@ -1197,7 +1246,7 @@
       <c r="D4" s="1">
         <v>554</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f>+Z4-SUM(B4:D4)</f>
         <v>336</v>
       </c>
@@ -1210,7 +1259,7 @@
       <c r="H4" s="1">
         <v>614</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f>+AA4-SUM(F4:H4)</f>
         <v>403</v>
       </c>
@@ -1223,7 +1272,7 @@
       <c r="L4" s="1">
         <v>689</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <f>+AB4-SUM(J4:L4)</f>
         <v>514</v>
       </c>
@@ -1233,14 +1282,14 @@
       <c r="O4" s="1">
         <v>714</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
       <c r="Z4" s="1">
         <v>1812</v>
       </c>
@@ -1250,86 +1299,86 @@
       <c r="AB4" s="1">
         <v>2424</v>
       </c>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-    </row>
-    <row r="5" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+    </row>
+    <row r="5" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7">
-        <f>+SUM(B3:B4)</f>
+      <c r="B5" s="6">
+        <f t="shared" ref="B5:O5" si="0">+SUM(B3:B4)</f>
         <v>2007</v>
       </c>
-      <c r="C5" s="7">
-        <f>+SUM(C3:C4)</f>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
         <v>2673</v>
       </c>
-      <c r="D5" s="7">
-        <f>+SUM(D3:D4)</f>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
         <v>5632</v>
       </c>
-      <c r="E5" s="7">
-        <f>+SUM(E3:E4)</f>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
         <v>2414</v>
       </c>
-      <c r="F5" s="7">
-        <f>+SUM(F3:F4)</f>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
         <v>2597</v>
       </c>
-      <c r="G5" s="7">
-        <f>+SUM(G3:G4)</f>
+      <c r="G5" s="6">
+        <f t="shared" si="0"/>
         <v>3041</v>
       </c>
-      <c r="H5" s="7">
-        <f>+SUM(H3:H4)</f>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
         <v>6018</v>
       </c>
-      <c r="I5" s="7">
-        <f>+SUM(I3:I4)</f>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
         <v>2712</v>
       </c>
-      <c r="J5" s="7">
-        <f>+SUM(J3:J4)</f>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
         <v>2978</v>
       </c>
-      <c r="K5" s="7">
-        <f>+SUM(K3:K4)</f>
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
         <v>3386</v>
       </c>
-      <c r="L5" s="7">
-        <f>+SUM(L3:L4)</f>
+      <c r="L5" s="6">
+        <f t="shared" si="0"/>
         <v>6737</v>
       </c>
-      <c r="M5" s="7">
-        <f>+SUM(M3:M4)</f>
+      <c r="M5" s="6">
+        <f t="shared" si="0"/>
         <v>3184</v>
       </c>
-      <c r="N5" s="7">
-        <f>+SUM(N3:N4)</f>
+      <c r="N5" s="6">
+        <f t="shared" si="0"/>
         <v>3283</v>
       </c>
-      <c r="O5" s="7">
-        <f>+SUM(O3:O4)</f>
+      <c r="O5" s="6">
+        <f t="shared" si="0"/>
         <v>3963</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="Z5" s="6">
         <f>+SUM(Z3:Z4)</f>
         <v>12726</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="6">
         <f>+SUM(AA3:AA4)</f>
         <v>14368</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="6">
         <f>+SUM(AB3:AB4)</f>
         <v>16285</v>
       </c>
@@ -1350,7 +1399,7 @@
         <f>18+764</f>
         <v>782</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f>+Z6-SUM(B6:D6)</f>
         <v>559</v>
       </c>
@@ -1366,7 +1415,7 @@
         <f>924+17</f>
         <v>941</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <f>+AA6-SUM(F6:H6)</f>
         <v>672</v>
       </c>
@@ -1382,7 +1431,7 @@
         <f>1014+17</f>
         <v>1031</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <f>+AB6-SUM(J6:L6)</f>
         <v>747</v>
       </c>
@@ -1412,59 +1461,59 @@
         <v>2</v>
       </c>
       <c r="B7" s="1">
-        <f>+B5-B6</f>
+        <f t="shared" ref="B7:O7" si="1">+B5-B6</f>
         <v>1605</v>
       </c>
       <c r="C7" s="1">
-        <f>+C5-C6</f>
+        <f t="shared" si="1"/>
         <v>2150</v>
       </c>
       <c r="D7" s="1">
-        <f>+D5-D6</f>
+        <f t="shared" si="1"/>
         <v>4850</v>
       </c>
       <c r="E7" s="1">
-        <f>+E5-E6</f>
+        <f t="shared" si="1"/>
         <v>1855</v>
       </c>
       <c r="F7" s="1">
-        <f>+F5-F6</f>
+        <f t="shared" si="1"/>
         <v>1962</v>
       </c>
       <c r="G7" s="1">
-        <f>+G5-G6</f>
+        <f t="shared" si="1"/>
         <v>2309</v>
       </c>
       <c r="H7" s="1">
-        <f>+H5-H6</f>
+        <f t="shared" si="1"/>
         <v>5077</v>
       </c>
       <c r="I7" s="1">
-        <f>+I5-I6</f>
+        <f t="shared" si="1"/>
         <v>2040</v>
       </c>
       <c r="J7" s="1">
-        <f>+J5-J6</f>
+        <f t="shared" si="1"/>
         <v>2256</v>
       </c>
       <c r="K7" s="1">
-        <f>+K5-K6</f>
+        <f t="shared" si="1"/>
         <v>2567</v>
       </c>
       <c r="L7" s="1">
-        <f>+L5-L6</f>
+        <f t="shared" si="1"/>
         <v>5706</v>
       </c>
       <c r="M7" s="1">
-        <f>+M5-M6</f>
+        <f t="shared" si="1"/>
         <v>2437</v>
       </c>
       <c r="N7" s="1">
-        <f>+N5-N6</f>
+        <f t="shared" si="1"/>
         <v>2497</v>
       </c>
       <c r="O7" s="1">
-        <f>+O5-O6</f>
+        <f t="shared" si="1"/>
         <v>3063</v>
       </c>
       <c r="Z7" s="1">
@@ -1482,7 +1531,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
         <v>550</v>
@@ -1493,8 +1542,8 @@
       <c r="D8" s="1">
         <v>1227</v>
       </c>
-      <c r="E8" s="3">
-        <f t="shared" ref="E8:E10" si="1">+Z8-SUM(B8:D8)</f>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8:E10" si="2">+Z8-SUM(B8:D8)</f>
         <v>807</v>
       </c>
       <c r="F8" s="1">
@@ -1506,8 +1555,8 @@
       <c r="H8" s="1">
         <v>1203</v>
       </c>
-      <c r="I8" s="3">
-        <f t="shared" ref="I8:I10" si="2">+AA8-SUM(F8:H8)</f>
+      <c r="I8" s="2">
+        <f t="shared" ref="I8:I10" si="3">+AA8-SUM(F8:H8)</f>
         <v>840</v>
       </c>
       <c r="J8" s="1">
@@ -1519,8 +1568,8 @@
       <c r="L8" s="1">
         <v>1419</v>
       </c>
-      <c r="M8" s="3">
-        <f t="shared" ref="M8:M10" si="3">+AB8-SUM(J8:L8)</f>
+      <c r="M8" s="2">
+        <f t="shared" ref="M8:M10" si="4">+AB8-SUM(J8:L8)</f>
         <v>1104</v>
       </c>
       <c r="N8" s="1">
@@ -1552,8 +1601,8 @@
       <c r="D9" s="1">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
-        <f t="shared" si="1"/>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
         <v>627</v>
       </c>
       <c r="F9" s="1">
@@ -1565,8 +1614,8 @@
       <c r="H9" s="1">
         <v>604</v>
       </c>
-      <c r="I9" s="3">
-        <f t="shared" si="2"/>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
         <v>680</v>
       </c>
       <c r="J9" s="1">
@@ -1578,8 +1627,8 @@
       <c r="L9" s="1">
         <v>671</v>
       </c>
-      <c r="M9" s="3">
-        <f t="shared" si="3"/>
+      <c r="M9" s="2">
+        <f t="shared" si="4"/>
         <v>725</v>
       </c>
       <c r="N9" s="1">
@@ -1600,7 +1649,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1">
         <v>262</v>
@@ -1611,8 +1660,8 @@
       <c r="D10" s="1">
         <v>465</v>
       </c>
-      <c r="E10" s="3">
-        <f t="shared" si="1"/>
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
         <v>-710</v>
       </c>
       <c r="F10" s="1">
@@ -1624,8 +1673,8 @@
       <c r="H10" s="1">
         <v>332</v>
       </c>
-      <c r="I10" s="3">
-        <f t="shared" si="2"/>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
         <v>341</v>
       </c>
       <c r="J10" s="1">
@@ -1637,8 +1686,8 @@
       <c r="L10" s="1">
         <v>355</v>
       </c>
-      <c r="M10" s="3">
-        <f t="shared" si="3"/>
+      <c r="M10" s="2">
+        <f t="shared" si="4"/>
         <v>377</v>
       </c>
       <c r="N10" s="1">
@@ -1662,59 +1711,59 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <f>+SUM(B8:B10)</f>
+        <f t="shared" ref="B11:O11" si="5">+SUM(B8:B10)</f>
         <v>1342</v>
       </c>
       <c r="C11" s="1">
-        <f>+SUM(C8:C10)</f>
+        <f t="shared" si="5"/>
         <v>1931</v>
       </c>
       <c r="D11" s="1">
-        <f>+SUM(D8:D10)</f>
+        <f t="shared" si="5"/>
         <v>2292</v>
       </c>
       <c r="E11" s="1">
-        <f>+SUM(E8:E10)</f>
+        <f t="shared" si="5"/>
         <v>724</v>
       </c>
       <c r="F11" s="1">
-        <f>+SUM(F8:F10)</f>
+        <f t="shared" si="5"/>
         <v>1724</v>
       </c>
       <c r="G11" s="1">
-        <f>+SUM(G8:G10)</f>
+        <f t="shared" si="5"/>
         <v>1877</v>
       </c>
       <c r="H11" s="1">
-        <f>+SUM(H8:H10)</f>
+        <f t="shared" si="5"/>
         <v>2139</v>
       </c>
       <c r="I11" s="1">
-        <f>+SUM(I8:I10)</f>
+        <f t="shared" si="5"/>
         <v>1861</v>
       </c>
       <c r="J11" s="1">
-        <f>+SUM(J8:J10)</f>
+        <f t="shared" si="5"/>
         <v>1791</v>
       </c>
       <c r="K11" s="1">
-        <f>+SUM(K8:K10)</f>
+        <f t="shared" si="5"/>
         <v>2042</v>
       </c>
       <c r="L11" s="1">
-        <f>+SUM(L8:L10)</f>
+        <f t="shared" si="5"/>
         <v>2445</v>
       </c>
       <c r="M11" s="1">
-        <f>+SUM(M8:M10)</f>
+        <f t="shared" si="5"/>
         <v>2206</v>
       </c>
       <c r="N11" s="1">
-        <f>+SUM(N8:N10)</f>
+        <f t="shared" si="5"/>
         <v>2060</v>
       </c>
       <c r="O11" s="1">
-        <f>+SUM(O8:O10)</f>
+        <f t="shared" si="5"/>
         <v>2309</v>
       </c>
       <c r="Z11" s="1">
@@ -1730,75 +1779,75 @@
         <v>8484</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="7">
-        <f>+B7-B11</f>
+      <c r="B12" s="6">
+        <f t="shared" ref="B12:O12" si="6">+B7-B11</f>
         <v>263</v>
       </c>
-      <c r="C12" s="7">
-        <f>+C7-C11</f>
+      <c r="C12" s="6">
+        <f t="shared" si="6"/>
         <v>219</v>
       </c>
-      <c r="D12" s="7">
-        <f>+D7-D11</f>
+      <c r="D12" s="6">
+        <f t="shared" si="6"/>
         <v>2558</v>
       </c>
-      <c r="E12" s="7">
-        <f>+E7-E11</f>
+      <c r="E12" s="6">
+        <f t="shared" si="6"/>
         <v>1131</v>
       </c>
-      <c r="F12" s="7">
-        <f>+F7-F11</f>
+      <c r="F12" s="6">
+        <f t="shared" si="6"/>
         <v>238</v>
       </c>
-      <c r="G12" s="7">
-        <f>+G7-G11</f>
+      <c r="G12" s="6">
+        <f t="shared" si="6"/>
         <v>432</v>
       </c>
-      <c r="H12" s="7">
-        <f>+H7-H11</f>
+      <c r="H12" s="6">
+        <f t="shared" si="6"/>
         <v>2938</v>
       </c>
-      <c r="I12" s="7">
-        <f>+I7-I11</f>
+      <c r="I12" s="6">
+        <f t="shared" si="6"/>
         <v>179</v>
       </c>
-      <c r="J12" s="7">
-        <f>+J7-J11</f>
+      <c r="J12" s="6">
+        <f t="shared" si="6"/>
         <v>465</v>
       </c>
-      <c r="K12" s="7">
-        <f>+K7-K11</f>
+      <c r="K12" s="6">
+        <f t="shared" si="6"/>
         <v>525</v>
       </c>
-      <c r="L12" s="7">
-        <f>+L7-L11</f>
+      <c r="L12" s="6">
+        <f t="shared" si="6"/>
         <v>3261</v>
       </c>
-      <c r="M12" s="7">
-        <f>+M7-M11</f>
+      <c r="M12" s="6">
+        <f t="shared" si="6"/>
         <v>231</v>
       </c>
-      <c r="N12" s="7">
-        <f>+N7-N11</f>
+      <c r="N12" s="6">
+        <f t="shared" si="6"/>
         <v>437</v>
       </c>
-      <c r="O12" s="7">
-        <f>+O7-O11</f>
+      <c r="O12" s="6">
+        <f t="shared" si="6"/>
         <v>754</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="Z12" s="6">
         <f>+Z7-Z11</f>
         <v>4171</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="6">
         <f>+AA7-AA11</f>
         <v>3787</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="6">
         <f>+AB7-AB11</f>
         <v>4482</v>
       </c>
@@ -1819,8 +1868,8 @@
         <f>-21-1</f>
         <v>-22</v>
       </c>
-      <c r="E13" s="3">
-        <f t="shared" ref="E13" si="4">+Z13-SUM(B13:D13)</f>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13" si="7">+Z13-SUM(B13:D13)</f>
         <v>-24</v>
       </c>
       <c r="F13" s="1">
@@ -1835,8 +1884,8 @@
         <f>-66+22</f>
         <v>-44</v>
       </c>
-      <c r="I13" s="3">
-        <f t="shared" ref="I13" si="5">+AA13-SUM(F13:H13)</f>
+      <c r="I13" s="2">
+        <f t="shared" ref="I13" si="8">+AA13-SUM(F13:H13)</f>
         <v>-22</v>
       </c>
       <c r="J13" s="1">
@@ -1851,8 +1900,8 @@
         <f>-60+27</f>
         <v>-33</v>
       </c>
-      <c r="M13" s="3">
-        <f t="shared" ref="M13" si="6">+AB13-SUM(J13:L13)</f>
+      <c r="M13" s="2">
+        <f t="shared" ref="M13" si="9">+AB13-SUM(J13:L13)</f>
         <v>11</v>
       </c>
       <c r="N13" s="1">
@@ -1881,59 +1930,59 @@
         <v>7</v>
       </c>
       <c r="B14" s="1">
-        <f>+B12+B13</f>
+        <f t="shared" ref="B14:O14" si="10">+B12+B13</f>
         <v>306</v>
       </c>
       <c r="C14" s="1">
-        <f>+C12+C13</f>
+        <f t="shared" si="10"/>
         <v>193</v>
       </c>
       <c r="D14" s="1">
-        <f>+D12+D13</f>
+        <f t="shared" si="10"/>
         <v>2536</v>
       </c>
       <c r="E14" s="1">
-        <f>+E12+E13</f>
+        <f t="shared" si="10"/>
         <v>1107</v>
       </c>
       <c r="F14" s="1">
-        <f>+F12+F13</f>
+        <f t="shared" si="10"/>
         <v>194</v>
       </c>
       <c r="G14" s="1">
-        <f>+G12+G13</f>
+        <f t="shared" si="10"/>
         <v>390</v>
       </c>
       <c r="H14" s="1">
-        <f>+H12+H13</f>
+        <f t="shared" si="10"/>
         <v>2894</v>
       </c>
       <c r="I14" s="1">
-        <f>+I12+I13</f>
+        <f t="shared" si="10"/>
         <v>157</v>
       </c>
       <c r="J14" s="1">
-        <f>+J12+J13</f>
+        <f t="shared" si="10"/>
         <v>422</v>
       </c>
       <c r="K14" s="1">
-        <f>+K12+K13</f>
+        <f t="shared" si="10"/>
         <v>510</v>
       </c>
       <c r="L14" s="1">
-        <f>+L12+L13</f>
+        <f t="shared" si="10"/>
         <v>3228</v>
       </c>
       <c r="M14" s="1">
-        <f>+M12+M13</f>
+        <f t="shared" si="10"/>
         <v>242</v>
       </c>
       <c r="N14" s="1">
-        <f>+N12+N13</f>
+        <f t="shared" si="10"/>
         <v>379</v>
       </c>
       <c r="O14" s="1">
-        <f>+O12+O13</f>
+        <f t="shared" si="10"/>
         <v>732</v>
       </c>
       <c r="Z14" s="1">
@@ -1962,8 +2011,8 @@
       <c r="D15" s="1">
         <v>579</v>
       </c>
-      <c r="E15" s="3">
-        <f t="shared" ref="E15" si="7">+Z15-SUM(B15:D15)</f>
+      <c r="E15" s="2">
+        <f t="shared" ref="E15" si="11">+Z15-SUM(B15:D15)</f>
         <v>-43</v>
       </c>
       <c r="F15" s="1">
@@ -1975,8 +2024,8 @@
       <c r="H15" s="1">
         <v>647</v>
       </c>
-      <c r="I15" s="3">
-        <f t="shared" ref="I15" si="8">+AA15-SUM(F15:H15)</f>
+      <c r="I15" s="2">
+        <f t="shared" ref="I15" si="12">+AA15-SUM(F15:H15)</f>
         <v>-94</v>
       </c>
       <c r="J15" s="1">
@@ -1988,8 +2037,8 @@
       <c r="L15" s="1">
         <v>683</v>
       </c>
-      <c r="M15" s="3">
-        <f t="shared" ref="M15" si="9">+AB15-SUM(J15:L15)</f>
+      <c r="M15" s="2">
+        <f t="shared" ref="M15" si="13">+AB15-SUM(J15:L15)</f>
         <v>-120</v>
       </c>
       <c r="N15" s="1">
@@ -2008,148 +2057,148 @@
         <v>587</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="7">
-        <f>+B14-B15</f>
+      <c r="B16" s="6">
+        <f t="shared" ref="B16:O16" si="14">+B14-B15</f>
         <v>296</v>
       </c>
-      <c r="C16" s="7">
-        <f>+C14-C15</f>
+      <c r="C16" s="6">
+        <f t="shared" si="14"/>
         <v>263</v>
       </c>
-      <c r="D16" s="7">
-        <f>+D14-D15</f>
+      <c r="D16" s="6">
+        <f t="shared" si="14"/>
         <v>1957</v>
       </c>
-      <c r="E16" s="7">
-        <f>+E14-E15</f>
+      <c r="E16" s="6">
+        <f t="shared" si="14"/>
         <v>1150</v>
       </c>
-      <c r="F16" s="7">
-        <f>+F14-F15</f>
+      <c r="F16" s="6">
+        <f t="shared" si="14"/>
         <v>202</v>
       </c>
-      <c r="G16" s="7">
-        <f>+G14-G15</f>
+      <c r="G16" s="6">
+        <f t="shared" si="14"/>
         <v>330</v>
       </c>
-      <c r="H16" s="7">
-        <f>+H14-H15</f>
+      <c r="H16" s="6">
+        <f t="shared" si="14"/>
         <v>2247</v>
       </c>
-      <c r="I16" s="7">
-        <f>+I14-I15</f>
+      <c r="I16" s="6">
+        <f t="shared" si="14"/>
         <v>251</v>
       </c>
-      <c r="J16" s="7">
-        <f>+J14-J15</f>
+      <c r="J16" s="6">
+        <f t="shared" si="14"/>
         <v>399</v>
       </c>
-      <c r="K16" s="7">
-        <f>+K14-K15</f>
+      <c r="K16" s="6">
+        <f t="shared" si="14"/>
         <v>509</v>
       </c>
-      <c r="L16" s="7">
-        <f>+L14-L15</f>
+      <c r="L16" s="6">
+        <f t="shared" si="14"/>
         <v>2545</v>
       </c>
-      <c r="M16" s="7">
-        <f>+M14-M15</f>
+      <c r="M16" s="6">
+        <f t="shared" si="14"/>
         <v>362</v>
       </c>
-      <c r="N16" s="7">
-        <f>+N14-N15</f>
+      <c r="N16" s="6">
+        <f t="shared" si="14"/>
         <v>363</v>
       </c>
-      <c r="O16" s="7">
-        <f>+O14-O15</f>
+      <c r="O16" s="6">
+        <f t="shared" si="14"/>
         <v>632</v>
       </c>
-      <c r="Z16" s="7">
+      <c r="Z16" s="6">
         <f>+Z14-Z15</f>
         <v>3666</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AA16" s="6">
         <f>+AA14-AA15</f>
         <v>3030</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AB16" s="6">
         <f>+AB14-AB15</f>
         <v>3815</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5">
-        <f>+B16/B18</f>
+      <c r="B17" s="4">
+        <f t="shared" ref="B17:O17" si="15">+B16/B18</f>
         <v>1.0685920577617329</v>
       </c>
-      <c r="C17" s="5">
-        <f>+C16/C18</f>
+      <c r="C17" s="4">
+        <f t="shared" si="15"/>
         <v>0.93262411347517726</v>
       </c>
-      <c r="D17" s="5">
-        <f>+D16/D18</f>
+      <c r="D17" s="4">
+        <f t="shared" si="15"/>
         <v>6.9151943462897529</v>
       </c>
-      <c r="E17" s="5">
-        <f>+E16/E18</f>
+      <c r="E17" s="4">
+        <f t="shared" si="15"/>
         <v>3.9115646258503403</v>
       </c>
-      <c r="F17" s="5">
-        <f>+F16/F18</f>
+      <c r="F17" s="4">
+        <f t="shared" si="15"/>
         <v>0.71126760563380287</v>
       </c>
-      <c r="G17" s="5">
-        <f>+G16/G18</f>
+      <c r="G17" s="4">
+        <f t="shared" si="15"/>
         <v>1.1702127659574468</v>
       </c>
-      <c r="H17" s="5">
-        <f>+H16/H18</f>
+      <c r="H17" s="4">
+        <f t="shared" si="15"/>
         <v>7.9399293286219077</v>
       </c>
-      <c r="I17" s="5">
-        <f>+I16/I18</f>
+      <c r="I17" s="4">
+        <f t="shared" si="15"/>
         <v>0.88692579505300351</v>
       </c>
-      <c r="J17" s="5">
-        <f>+J16/J18</f>
+      <c r="J17" s="4">
+        <f t="shared" si="15"/>
         <v>1.425</v>
       </c>
-      <c r="K17" s="5">
-        <f>+K16/K18</f>
+      <c r="K17" s="4">
+        <f t="shared" si="15"/>
         <v>1.7922535211267605</v>
       </c>
-      <c r="L17" s="5">
-        <f>+L16/L18</f>
+      <c r="L17" s="4">
+        <f t="shared" si="15"/>
         <v>8.9612676056338021</v>
       </c>
-      <c r="M17" s="5">
-        <f>+M16/M18</f>
+      <c r="M17" s="4">
+        <f t="shared" si="15"/>
         <v>1.2569444444444444</v>
       </c>
-      <c r="N17" s="5">
-        <f>+N16/N18</f>
+      <c r="N17" s="4">
+        <f t="shared" si="15"/>
         <v>1.2964285714285715</v>
       </c>
-      <c r="O17" s="5">
-        <f>+O16/O18</f>
+      <c r="O17" s="4">
+        <f t="shared" si="15"/>
         <v>2.2332155477031801</v>
       </c>
-      <c r="Z17" s="5">
+      <c r="Z17" s="4">
         <f>+Z16/Z18</f>
         <v>12.908450704225352</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AA17" s="4">
         <f>+AA16/AA18</f>
         <v>10.706713780918728</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AB17" s="4">
         <f>+AB16/AB18</f>
         <v>13.433098591549296</v>
       </c>
@@ -2213,359 +2262,359 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="4">
-        <f>+B7/B5</f>
+      <c r="B20" s="3">
+        <f t="shared" ref="B20:O20" si="16">+B7/B5</f>
         <v>0.79970104633781769</v>
       </c>
-      <c r="C20" s="4">
-        <f>+C7/C5</f>
+      <c r="C20" s="3">
+        <f t="shared" si="16"/>
         <v>0.80433969322858212</v>
       </c>
-      <c r="D20" s="4">
-        <f>+D7/D5</f>
+      <c r="D20" s="3">
+        <f t="shared" si="16"/>
         <v>0.86115056818181823</v>
       </c>
-      <c r="E20" s="4">
-        <f>+E7/E5</f>
+      <c r="E20" s="3">
+        <f t="shared" si="16"/>
         <v>0.76843413421706708</v>
       </c>
-      <c r="F20" s="4">
-        <f>+F7/F5</f>
+      <c r="F20" s="3">
+        <f t="shared" si="16"/>
         <v>0.75548710050057755</v>
       </c>
-      <c r="G20" s="4">
-        <f>+G7/G5</f>
+      <c r="G20" s="3">
+        <f t="shared" si="16"/>
         <v>0.75928970733311407</v>
       </c>
-      <c r="H20" s="4">
-        <f>+H7/H5</f>
+      <c r="H20" s="3">
+        <f t="shared" si="16"/>
         <v>0.84363575938850122</v>
       </c>
-      <c r="I20" s="4">
-        <f>+I7/I5</f>
+      <c r="I20" s="3">
+        <f t="shared" si="16"/>
         <v>0.75221238938053092</v>
       </c>
-      <c r="J20" s="4">
-        <f>+J7/J5</f>
+      <c r="J20" s="3">
+        <f t="shared" si="16"/>
         <v>0.7575554063129617</v>
       </c>
-      <c r="K20" s="4">
-        <f>+K7/K5</f>
+      <c r="K20" s="3">
+        <f t="shared" si="16"/>
         <v>0.75812167749557002</v>
       </c>
-      <c r="L20" s="4">
-        <f>+L7/L5</f>
+      <c r="L20" s="3">
+        <f t="shared" si="16"/>
         <v>0.8469645242689624</v>
       </c>
-      <c r="M20" s="4">
-        <f>+M7/M5</f>
+      <c r="M20" s="3">
+        <f t="shared" si="16"/>
         <v>0.76538944723618085</v>
       </c>
-      <c r="N20" s="4">
-        <f>+N7/N5</f>
+      <c r="N20" s="3">
+        <f t="shared" si="16"/>
         <v>0.76058483094730434</v>
       </c>
-      <c r="O20" s="4">
-        <f>+O7/O5</f>
+      <c r="O20" s="3">
+        <f t="shared" si="16"/>
         <v>0.77289931869795614</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="Z20" s="3">
         <f>+Z7/Z5</f>
         <v>0.82193933679082198</v>
       </c>
-      <c r="AA20" s="4">
+      <c r="AA20" s="3">
         <f>+AA7/AA5</f>
         <v>0.79259465478841873</v>
       </c>
-      <c r="AB20" s="4">
+      <c r="AB20" s="3">
         <f>+AB7/AB5</f>
         <v>0.79619281547436294</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="4">
-        <f>+B12/B5</f>
+      <c r="B21" s="3">
+        <f t="shared" ref="B21:O21" si="17">+B12/B5</f>
         <v>0.1310413552566019</v>
       </c>
-      <c r="C21" s="4">
-        <f>+C12/C5</f>
+      <c r="C21" s="3">
+        <f t="shared" si="17"/>
         <v>8.1930415263748599E-2</v>
       </c>
-      <c r="D21" s="4">
-        <f>+D12/D5</f>
+      <c r="D21" s="3">
+        <f t="shared" si="17"/>
         <v>0.45419034090909088</v>
       </c>
-      <c r="E21" s="4">
-        <f>+E12/E5</f>
+      <c r="E21" s="3">
+        <f t="shared" si="17"/>
         <v>0.46851698425849214</v>
       </c>
-      <c r="F21" s="4">
-        <f>+F12/F5</f>
+      <c r="F21" s="3">
+        <f t="shared" si="17"/>
         <v>9.1644204851752023E-2</v>
       </c>
-      <c r="G21" s="4">
-        <f>+G12/G5</f>
+      <c r="G21" s="3">
+        <f t="shared" si="17"/>
         <v>0.14205853337717855</v>
       </c>
-      <c r="H21" s="4">
-        <f>+H12/H5</f>
+      <c r="H21" s="3">
+        <f t="shared" si="17"/>
         <v>0.48820206048521103</v>
       </c>
-      <c r="I21" s="4">
-        <f>+I12/I5</f>
+      <c r="I21" s="3">
+        <f t="shared" si="17"/>
         <v>6.6002949852507375E-2</v>
       </c>
-      <c r="J21" s="4">
-        <f>+J12/J5</f>
+      <c r="J21" s="3">
+        <f t="shared" si="17"/>
         <v>0.15614506380120888</v>
       </c>
-      <c r="K21" s="4">
-        <f>+K12/K5</f>
+      <c r="K21" s="3">
+        <f t="shared" si="17"/>
         <v>0.15505020673360898</v>
       </c>
-      <c r="L21" s="4">
-        <f>+L12/L5</f>
+      <c r="L21" s="3">
+        <f t="shared" si="17"/>
         <v>0.48404334273415467</v>
       </c>
-      <c r="M21" s="4">
-        <f>+M12/M5</f>
+      <c r="M21" s="3">
+        <f t="shared" si="17"/>
         <v>7.2550251256281409E-2</v>
       </c>
-      <c r="N21" s="4">
-        <f>+N12/N5</f>
+      <c r="N21" s="3">
+        <f t="shared" si="17"/>
         <v>0.13310996040207126</v>
       </c>
-      <c r="O21" s="4">
-        <f>+O12/O5</f>
+      <c r="O21" s="3">
+        <f t="shared" si="17"/>
         <v>0.19025990411304566</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="Z21" s="3">
         <f>+Z12/Z5</f>
         <v>0.32775420399182775</v>
       </c>
-      <c r="AA21" s="4">
+      <c r="AA21" s="3">
         <f>+AA12/AA5</f>
         <v>0.26357182628062359</v>
       </c>
-      <c r="AB21" s="4">
+      <c r="AB21" s="3">
         <f>+AB12/AB5</f>
         <v>0.27522259748234573</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="4">
-        <f>+B16/B5</f>
+      <c r="B22" s="3">
+        <f t="shared" ref="B22:O22" si="18">+B16/B5</f>
         <v>0.1474838066766318</v>
       </c>
-      <c r="C22" s="4">
-        <f>+C16/C5</f>
+      <c r="C22" s="3">
+        <f t="shared" si="18"/>
         <v>9.8391320613542832E-2</v>
       </c>
-      <c r="D22" s="4">
-        <f>+D16/D5</f>
+      <c r="D22" s="3">
+        <f t="shared" si="18"/>
         <v>0.34747869318181818</v>
       </c>
-      <c r="E22" s="4">
-        <f>+E16/E5</f>
+      <c r="E22" s="3">
+        <f t="shared" si="18"/>
         <v>0.47638773819386909</v>
       </c>
-      <c r="F22" s="4">
-        <f>+F16/F5</f>
+      <c r="F22" s="3">
+        <f t="shared" si="18"/>
         <v>7.7782056218713896E-2</v>
       </c>
-      <c r="G22" s="4">
-        <f>+G16/G5</f>
+      <c r="G22" s="3">
+        <f t="shared" si="18"/>
         <v>0.10851693521867807</v>
       </c>
-      <c r="H22" s="4">
-        <f>+H16/H5</f>
+      <c r="H22" s="3">
+        <f t="shared" si="18"/>
         <v>0.37337986041874377</v>
       </c>
-      <c r="I22" s="4">
-        <f>+I16/I5</f>
+      <c r="I22" s="3">
+        <f t="shared" si="18"/>
         <v>9.2551622418879056E-2</v>
       </c>
-      <c r="J22" s="4">
-        <f>+J16/J5</f>
+      <c r="J22" s="3">
+        <f t="shared" si="18"/>
         <v>0.13398253861652115</v>
       </c>
-      <c r="K22" s="4">
-        <f>+K16/K5</f>
+      <c r="K22" s="3">
+        <f t="shared" si="18"/>
         <v>0.15032486709982279</v>
       </c>
-      <c r="L22" s="4">
-        <f>+L16/L5</f>
+      <c r="L22" s="3">
+        <f t="shared" si="18"/>
         <v>0.37776458364257087</v>
       </c>
-      <c r="M22" s="4">
-        <f>+M16/M5</f>
+      <c r="M22" s="3">
+        <f t="shared" si="18"/>
         <v>0.11369346733668342</v>
       </c>
-      <c r="N22" s="4">
-        <f>+N16/N5</f>
+      <c r="N22" s="3">
+        <f t="shared" si="18"/>
         <v>0.11056960097471824</v>
       </c>
-      <c r="O22" s="4">
-        <f>+O16/O5</f>
+      <c r="O22" s="3">
+        <f t="shared" si="18"/>
         <v>0.15947514509210195</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="Z22" s="3">
         <f>+Z16/Z5</f>
         <v>0.28807166430928804</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AA22" s="3">
         <f>+AA16/AA5</f>
         <v>0.21088530066815145</v>
       </c>
-      <c r="AB22" s="4">
+      <c r="AB22" s="3">
         <f>+AB16/AB5</f>
         <v>0.23426466073073379</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="4">
-        <f>+B15/B14</f>
+      <c r="B23" s="3">
+        <f t="shared" ref="B23:O23" si="19">+B15/B14</f>
         <v>3.2679738562091505E-2</v>
       </c>
-      <c r="C23" s="4">
-        <f>+C15/C14</f>
+      <c r="C23" s="3">
+        <f t="shared" si="19"/>
         <v>-0.36269430051813473</v>
       </c>
-      <c r="D23" s="4">
-        <f>+D15/D14</f>
+      <c r="D23" s="3">
+        <f t="shared" si="19"/>
         <v>0.22831230283911672</v>
       </c>
-      <c r="E23" s="4">
-        <f>+E15/E14</f>
+      <c r="E23" s="3">
+        <f t="shared" si="19"/>
         <v>-3.8843721770551037E-2</v>
       </c>
-      <c r="F23" s="4">
-        <f>+F15/F14</f>
+      <c r="F23" s="3">
+        <f t="shared" si="19"/>
         <v>-4.1237113402061855E-2</v>
       </c>
-      <c r="G23" s="4">
-        <f>+G15/G14</f>
+      <c r="G23" s="3">
+        <f t="shared" si="19"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="H23" s="4">
-        <f>+H15/H14</f>
+      <c r="H23" s="3">
+        <f t="shared" si="19"/>
         <v>0.22356599861783</v>
       </c>
-      <c r="I23" s="4">
-        <f>+I15/I14</f>
+      <c r="I23" s="3">
+        <f t="shared" si="19"/>
         <v>-0.59872611464968151</v>
       </c>
-      <c r="J23" s="4">
-        <f>+J15/J14</f>
+      <c r="J23" s="3">
+        <f t="shared" si="19"/>
         <v>5.4502369668246446E-2</v>
       </c>
-      <c r="K23" s="4">
-        <f>+K15/K14</f>
+      <c r="K23" s="3">
+        <f t="shared" si="19"/>
         <v>1.9607843137254902E-3</v>
       </c>
-      <c r="L23" s="4">
-        <f>+L15/L14</f>
+      <c r="L23" s="3">
+        <f t="shared" si="19"/>
         <v>0.21158612143742256</v>
       </c>
-      <c r="M23" s="4">
-        <f>+M15/M14</f>
+      <c r="M23" s="3">
+        <f t="shared" si="19"/>
         <v>-0.49586776859504134</v>
       </c>
-      <c r="N23" s="4">
-        <f>+N15/N14</f>
+      <c r="N23" s="3">
+        <f t="shared" si="19"/>
         <v>4.221635883905013E-2</v>
       </c>
-      <c r="O23" s="4">
-        <f>+O15/O14</f>
+      <c r="O23" s="3">
+        <f t="shared" si="19"/>
         <v>0.13661202185792351</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="Z23" s="3">
         <f>+Z15/Z14</f>
         <v>0.11492032834379527</v>
       </c>
-      <c r="AA23" s="4">
+      <c r="AA23" s="3">
         <f>+AA15/AA14</f>
         <v>0.16643741403026135</v>
       </c>
-      <c r="AB23" s="4">
+      <c r="AB23" s="3">
         <f>+AB15/AB14</f>
         <v>0.13334847796456156</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+    <row r="24" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="8">
-        <f t="shared" ref="F25:N25" si="10">+F5/B5-1</f>
+      <c r="F25" s="7">
+        <f t="shared" ref="F25:N25" si="20">+F5/B5-1</f>
         <v>0.29397110114598912</v>
       </c>
-      <c r="G25" s="8">
-        <f t="shared" si="10"/>
+      <c r="G25" s="7">
+        <f t="shared" si="20"/>
         <v>0.13767302656191549</v>
       </c>
-      <c r="H25" s="8">
-        <f t="shared" si="10"/>
+      <c r="H25" s="7">
+        <f t="shared" si="20"/>
         <v>6.8536931818181879E-2</v>
       </c>
-      <c r="I25" s="8">
-        <f t="shared" si="10"/>
+      <c r="I25" s="7">
+        <f t="shared" si="20"/>
         <v>0.12344656172328095</v>
       </c>
-      <c r="J25" s="8">
-        <f t="shared" si="10"/>
+      <c r="J25" s="7">
+        <f t="shared" si="20"/>
         <v>0.14670773969965345</v>
       </c>
-      <c r="K25" s="8">
-        <f t="shared" si="10"/>
+      <c r="K25" s="7">
+        <f t="shared" si="20"/>
         <v>0.11344952318316337</v>
       </c>
-      <c r="L25" s="8">
-        <f t="shared" si="10"/>
+      <c r="L25" s="7">
+        <f t="shared" si="20"/>
         <v>0.11947490860751087</v>
       </c>
-      <c r="M25" s="8">
-        <f t="shared" si="10"/>
+      <c r="M25" s="7">
+        <f t="shared" si="20"/>
         <v>0.17404129793510315</v>
       </c>
-      <c r="N25" s="8">
-        <f t="shared" si="10"/>
+      <c r="N25" s="7">
+        <f t="shared" si="20"/>
         <v>0.10241773002014765</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="7">
         <f>+O5/K5-1</f>
         <v>0.1704075605434141</v>
       </c>
-      <c r="Z25" s="8" t="e">
+      <c r="Z25" s="7" t="e">
         <f>+Z5/Y5-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="8">
+      <c r="AA25" s="7">
         <f>+AA5/Z5-1</f>
         <v>0.1290271884331291</v>
       </c>
-      <c r="AB25" s="8">
+      <c r="AB25" s="7">
         <f>+AB5/AA5-1</f>
         <v>0.13342149220489974</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="O27" s="1">
         <f>+O28-O40</f>
@@ -2574,7 +2623,7 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O28" s="1">
         <f>2435+24+1376+88</f>
@@ -2583,7 +2632,7 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="O29" s="1">
         <v>1017</v>
@@ -2591,7 +2640,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="O30" s="1">
         <v>14</v>
@@ -2607,7 +2656,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O32" s="1">
         <v>845</v>
@@ -2615,7 +2664,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O33" s="1">
         <v>3334</v>
@@ -2623,7 +2672,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="O34" s="1">
         <v>992</v>
@@ -2631,7 +2680,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="O35" s="1">
         <v>518</v>
@@ -2639,7 +2688,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="O36" s="1">
         <f>13841+5505</f>
@@ -2648,7 +2697,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="O37" s="1">
         <v>934</v>
@@ -2656,33 +2705,33 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="O38" s="1">
         <v>669</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O39" s="7">
+    <row r="39" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="6">
         <f>+SUM(O28:O38)</f>
         <v>31682</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O40" s="10">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="1">
         <f>500+5760</f>
         <v>6260</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="O41" s="1">
         <v>1038</v>
@@ -2690,7 +2739,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="O42" s="1">
         <v>623</v>
@@ -2698,7 +2747,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="O43" s="1">
         <v>1025</v>
@@ -2706,7 +2755,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="O44" s="1">
         <v>659</v>
@@ -2714,7 +2763,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="O45" s="1">
         <v>3334</v>
@@ -2722,7 +2771,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="O46" s="1">
         <v>573</v>
@@ -2730,24 +2779,24 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="O47" s="1">
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O48" s="7">
+    <row r="48" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O48" s="6">
         <f>+SUM(O40:O47)</f>
         <v>13733</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="O49" s="1">
         <v>17949</v>
@@ -2755,7 +2804,7 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O50" s="1">
         <f>+O49+O48</f>
@@ -2764,40 +2813,40 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="O52" s="1">
         <f>+SUM(L16:O16)</f>
         <v>3902</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O53" s="4">
+    <row r="53" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O53" s="3">
         <f>+O52/(O29+O30+O31+O32+O33+O34+O35+O37+O38)</f>
         <v>0.46380601450136694</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" ref="J55:M55" si="11">+J16</f>
+        <f t="shared" ref="J55:M55" si="21">+J16</f>
         <v>399</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>509</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2545</v>
       </c>
       <c r="M55" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>362</v>
       </c>
       <c r="N55" s="1">
@@ -2815,7 +2864,7 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="J56" s="1">
         <v>241</v>
@@ -2845,7 +2894,7 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="J57" s="1">
         <f>33+158</f>
@@ -2860,7 +2909,7 @@
         <v>198</v>
       </c>
       <c r="M57" s="1">
-        <f t="shared" ref="M57:M72" si="12">+AB57-SUM(J57:L57)</f>
+        <f t="shared" ref="M57:M72" si="22">+AB57-SUM(J57:L57)</f>
         <v>208</v>
       </c>
       <c r="N57" s="1">
@@ -2878,7 +2927,7 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="J58" s="1">
         <v>22</v>
@@ -2892,7 +2941,7 @@
         <v>20</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="N58" s="1">
@@ -2908,7 +2957,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="J59" s="1">
         <v>495</v>
@@ -2922,7 +2971,7 @@
         <v>451</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>519</v>
       </c>
       <c r="N59" s="1">
@@ -2938,7 +2987,7 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J60" s="1">
         <v>-126</v>
@@ -2952,7 +3001,7 @@
         <v>-51</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>-193</v>
       </c>
       <c r="N60" s="1">
@@ -2968,7 +3017,7 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J61" s="1">
         <v>28</v>
@@ -2982,7 +3031,7 @@
         <v>14</v>
       </c>
       <c r="M61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="N61" s="1">
@@ -2998,7 +3047,7 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J62" s="1">
         <v>-44</v>
@@ -3012,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N62" s="1">
@@ -3027,7 +3076,7 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J63" s="1">
         <v>35</v>
@@ -3041,7 +3090,7 @@
         <v>22</v>
       </c>
       <c r="M63" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N63" s="1">
@@ -3056,7 +3105,7 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J64" s="1">
         <v>33</v>
@@ -3070,7 +3119,7 @@
         <v>138</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>332</v>
       </c>
       <c r="N64" s="1">
@@ -3086,7 +3135,7 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="J65" s="1">
         <v>12</v>
@@ -3100,7 +3149,7 @@
         <v>122</v>
       </c>
       <c r="M65" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>-73</v>
       </c>
       <c r="N65" s="1">
@@ -3116,7 +3165,7 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J66" s="1">
         <v>-33</v>
@@ -3130,7 +3179,7 @@
         <v>22</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>-48</v>
       </c>
       <c r="N66" s="1">
@@ -3146,7 +3195,7 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J67" s="1">
         <v>-5</v>
@@ -3160,7 +3209,7 @@
         <v>135</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>-153</v>
       </c>
       <c r="N67" s="1">
@@ -3176,7 +3225,7 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J68" s="1">
         <v>-232</v>
@@ -3190,7 +3239,7 @@
         <v>139</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>237</v>
       </c>
       <c r="N68" s="1">
@@ -3206,7 +3255,7 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="J69" s="1">
         <v>-159</v>
@@ -3220,7 +3269,7 @@
         <v>-42</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>30</v>
       </c>
       <c r="N69" s="1">
@@ -3236,7 +3285,7 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J70" s="1">
         <v>-565</v>
@@ -3250,7 +3299,7 @@
         <v>435</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>191</v>
       </c>
       <c r="N70" s="1">
@@ -3266,7 +3315,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J71" s="1">
         <v>-20</v>
@@ -3280,7 +3329,7 @@
         <v>-12</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>-646</v>
       </c>
       <c r="N71" s="1">
@@ -3296,7 +3345,7 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J72" s="1">
         <v>30</v>
@@ -3310,7 +3359,7 @@
         <v>-29</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>-8</v>
       </c>
       <c r="N72" s="1">
@@ -3326,22 +3375,22 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J73" s="1">
         <f>+SUM(J64:J72)</f>
         <v>-939</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" ref="K73:M73" si="13">+SUM(K64:K72)</f>
+        <f t="shared" ref="K73:M73" si="23">+SUM(K64:K72)</f>
         <v>-260</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>908</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>-138</v>
       </c>
       <c r="N73" s="1">
@@ -3357,42 +3406,42 @@
         <v>-429</v>
       </c>
     </row>
-    <row r="74" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J74" s="7">
-        <f t="shared" ref="J74:M74" si="14">+J73+SUM(J56:J63)</f>
+    <row r="74" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J74" s="6">
+        <f t="shared" ref="J74:M74" si="24">+J73+SUM(J56:J63)</f>
         <v>-97</v>
       </c>
-      <c r="K74" s="7">
-        <f t="shared" si="14"/>
+      <c r="K74" s="6">
+        <f t="shared" si="24"/>
         <v>613</v>
       </c>
-      <c r="L74" s="7">
-        <f t="shared" si="14"/>
+      <c r="L74" s="6">
+        <f t="shared" si="24"/>
         <v>3951</v>
       </c>
-      <c r="M74" s="7">
-        <f t="shared" si="14"/>
+      <c r="M74" s="6">
+        <f t="shared" si="24"/>
         <v>417</v>
       </c>
-      <c r="N74" s="7">
+      <c r="N74" s="6">
         <f>+N73+SUM(N56:N63)</f>
         <v>362</v>
       </c>
-      <c r="O74" s="7">
+      <c r="O74" s="6">
         <f>+O73+SUM(O56:O63)</f>
         <v>1069</v>
       </c>
-      <c r="AB74" s="7">
+      <c r="AB74" s="6">
         <f>+AB73+SUM(AB56:AB63)</f>
         <v>4884</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="J76" s="1">
         <f>-92+94+301</f>
@@ -3407,7 +3456,7 @@
         <v>-438</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" ref="M76:M80" si="15">+AB76-SUM(J76:L76)</f>
+        <f t="shared" ref="M76:M80" si="25">+AB76-SUM(J76:L76)</f>
         <v>6</v>
       </c>
       <c r="N76" s="1">
@@ -3425,7 +3474,7 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J77" s="1">
         <v>-84</v>
@@ -3439,7 +3488,7 @@
         <v>-61</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-42</v>
       </c>
       <c r="N77" s="1">
@@ -3456,7 +3505,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J78" s="1">
         <v>0</v>
@@ -3468,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-83</v>
       </c>
       <c r="N78" s="1">
@@ -3483,7 +3532,7 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J79" s="1">
         <f>-377+258</f>
@@ -3498,7 +3547,7 @@
         <v>294</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-99</v>
       </c>
       <c r="N79" s="1">
@@ -3516,7 +3565,7 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J80" s="1">
         <v>10</v>
@@ -3530,7 +3579,7 @@
         <v>-14</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-34</v>
       </c>
       <c r="N80" s="1">
@@ -3546,22 +3595,22 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" ref="J81:M81" si="16">+SUM(J76:J80)</f>
+        <f t="shared" ref="J81:M81" si="26">+SUM(J76:J80)</f>
         <v>110</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>134</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>-219</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>-252</v>
       </c>
       <c r="N81" s="1">
@@ -3579,7 +3628,7 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J83" s="1">
         <f>3956-4200</f>
@@ -3594,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" ref="M83:M91" si="17">+AB83-SUM(J83:L83)</f>
+        <f t="shared" ref="M83:M91" si="27">+AB83-SUM(J83:L83)</f>
         <v>85</v>
       </c>
       <c r="N83" s="1">
@@ -3611,7 +3660,7 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J84" s="1">
         <v>92</v>
@@ -3625,7 +3674,7 @@
         <v>57</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>56</v>
       </c>
       <c r="N84" s="1">
@@ -3641,7 +3690,7 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="J85" s="1">
         <v>-212</v>
@@ -3655,7 +3704,7 @@
         <v>-202</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-370</v>
       </c>
       <c r="N85" s="1">
@@ -3671,7 +3720,7 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="J86" s="1">
         <v>-584</v>
@@ -3685,7 +3734,7 @@
         <v>-572</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-281</v>
       </c>
       <c r="N86" s="1">
@@ -3701,7 +3750,7 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="J87" s="1">
         <v>-260</v>
@@ -3715,7 +3764,7 @@
         <v>-257</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-261</v>
       </c>
       <c r="N87" s="1">
@@ -3731,7 +3780,7 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J88" s="1">
         <v>2040</v>
@@ -3745,7 +3794,7 @@
         <v>-709</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>1224</v>
       </c>
       <c r="N88" s="1">
@@ -3761,7 +3810,7 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J89" s="1">
         <v>17</v>
@@ -3775,7 +3824,7 @@
         <v>-1</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="N89" s="1">
@@ -3791,22 +3840,22 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J90" s="1">
-        <f t="shared" ref="J90:M90" si="18">+SUM(J83:J89)</f>
+        <f t="shared" ref="J90:M90" si="28">+SUM(J83:J89)</f>
         <v>849</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>-16</v>
       </c>
       <c r="L90" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>-1684</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>454</v>
       </c>
       <c r="N90" s="1">
@@ -3824,7 +3873,7 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J91" s="1">
         <v>-17</v>
@@ -3838,7 +3887,7 @@
         <v>-8</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-1</v>
       </c>
       <c r="N91" s="1">
@@ -3853,22 +3902,22 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="J92" s="1">
-        <f t="shared" ref="J92:M92" si="19">+J74+J81+J90+J91</f>
+        <f t="shared" ref="J92:M92" si="29">+J74+J81+J90+J91</f>
         <v>845</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>744</v>
       </c>
       <c r="L92" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>2040</v>
       </c>
       <c r="M92" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>618</v>
       </c>
       <c r="N92" s="1">
@@ -3884,49 +3933,49 @@
         <v>4247</v>
       </c>
     </row>
-    <row r="94" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J94" s="7">
-        <f t="shared" ref="J94:M94" si="20">+J74+J77</f>
+    <row r="94" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J94" s="6">
+        <f t="shared" ref="J94:M94" si="30">+J74+J77</f>
         <v>-181</v>
       </c>
-      <c r="K94" s="7">
-        <f t="shared" si="20"/>
+      <c r="K94" s="6">
+        <f t="shared" si="30"/>
         <v>550</v>
       </c>
-      <c r="L94" s="7">
-        <f t="shared" si="20"/>
+      <c r="L94" s="6">
+        <f t="shared" si="30"/>
         <v>3890</v>
       </c>
-      <c r="M94" s="7">
-        <f t="shared" si="20"/>
+      <c r="M94" s="6">
+        <f t="shared" si="30"/>
         <v>375</v>
       </c>
-      <c r="N94" s="7">
+      <c r="N94" s="6">
         <f>+N74+N77</f>
         <v>329</v>
       </c>
-      <c r="O94" s="7">
+      <c r="O94" s="6">
         <f>+O74+O77</f>
         <v>1038</v>
       </c>
-      <c r="AB94" s="7">
+      <c r="AB94" s="6">
         <f>+AB74+AB77</f>
         <v>4634</v>
       </c>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" ref="M95:N95" si="21">+SUM(J94:M94)</f>
+        <f t="shared" ref="M95:N95" si="31">+SUM(J94:M94)</f>
         <v>4634</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>5144</v>
       </c>
       <c r="O95" s="1">
@@ -3935,10 +3984,11 @@
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
